--- a/Boulders.xlsx
+++ b/Boulders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebekahwoolmer/Documents/Rob/Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6FD8A-9728-0542-BD75-78F5F68023A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1235ED7-1147-B74B-994C-F6E35CC07D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" xr2:uid="{AE7A0507-35E5-D94E-B448-7CCA1F4FC824}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" activeTab="2" xr2:uid="{AE7A0507-35E5-D94E-B448-7CCA1F4FC824}"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>CRAG</t>
   </si>
@@ -56,16 +56,22 @@
     <t>Roadside Boulder</t>
   </si>
   <si>
-    <t>Parking south</t>
-  </si>
-  <si>
-    <t>Parking north</t>
-  </si>
-  <si>
     <t>The Cob Boulder</t>
   </si>
   <si>
     <t>Neb Boulder</t>
+  </si>
+  <si>
+    <t>Shaftoe North Parking</t>
+  </si>
+  <si>
+    <t>Shaftoe South Parking</t>
+  </si>
+  <si>
+    <t>Rothley</t>
+  </si>
+  <si>
+    <t>Rothley Parking</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D00BAC-CC5C-AF4B-955E-5503C14E912B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -542,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>55.132803000000003</v>
@@ -556,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>55.133276000000002</v>
@@ -578,14 +584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2298ED5C-C640-8D4A-9965-9BD688610C1D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -607,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>55.123171999999997</v>
@@ -621,13 +627,27 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>55.135221999999999</v>
       </c>
       <c r="D3">
         <v>-1.902695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>55.201110999999997</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-1.932353</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">

--- a/Boulders.xlsx
+++ b/Boulders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebekahwoolmer/Documents/Rob/Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1235ED7-1147-B74B-994C-F6E35CC07D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDDED0C-EE59-3648-A2BA-49CB016529D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" activeTab="2" xr2:uid="{AE7A0507-35E5-D94E-B448-7CCA1F4FC824}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{AE7A0507-35E5-D94E-B448-7CCA1F4FC824}"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>CRAG</t>
   </si>
@@ -59,9 +59,6 @@
     <t>The Cob Boulder</t>
   </si>
   <si>
-    <t>Neb Boulder</t>
-  </si>
-  <si>
     <t>Shaftoe North Parking</t>
   </si>
   <si>
@@ -72,6 +69,24 @@
   </si>
   <si>
     <t>Rothley Parking</t>
+  </si>
+  <si>
+    <t>Turtle Rock</t>
+  </si>
+  <si>
+    <t>The Neb</t>
+  </si>
+  <si>
+    <t>The Ravine</t>
+  </si>
+  <si>
+    <t>The Rift</t>
+  </si>
+  <si>
+    <t>Arete Land, Hallions Rocks</t>
+  </si>
+  <si>
+    <t>Six Pack</t>
   </si>
 </sst>
 </file>
@@ -79,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,11 +125,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,14 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,15 +513,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9F4C7F-8E14-0F41-933B-EB57B17BFAFF}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -536,10 +545,10 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>55.128520999999999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>-1.9209290000000001</v>
       </c>
     </row>
@@ -550,10 +559,10 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>55.132803000000003</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>-1.921006</v>
       </c>
     </row>
@@ -562,18 +571,138 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
         <v>55.133276000000002</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>-1.9214249999999999</v>
       </c>
       <c r="E4" s="3"/>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>55.133152000000003</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1.921451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>55.134166999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-1.9151389999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>55.136265999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-1.911842</v>
+      </c>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>55.138928</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-1.9169940000000001</v>
+      </c>
       <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>55.138772000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-1.9170039999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -584,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2298ED5C-C640-8D4A-9965-9BD688610C1D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -613,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>55.123171999999997</v>
@@ -627,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>55.135221999999999</v>
@@ -638,10 +767,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>55.201110999999997</v>

--- a/Boulders.xlsx
+++ b/Boulders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebekahwoolmer/Documents/Rob/Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDDED0C-EE59-3648-A2BA-49CB016529D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EC88E3-E2D9-904E-99B2-B5C4DAD4FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{AE7A0507-35E5-D94E-B448-7CCA1F4FC824}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" activeTab="1" xr2:uid="{AE7A0507-35E5-D94E-B448-7CCA1F4FC824}"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>CRAG</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Six Pack</t>
+  </si>
+  <si>
+    <t>Salter's Nick</t>
   </si>
 </sst>
 </file>
@@ -515,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9F4C7F-8E14-0F41-933B-EB57B17BFAFF}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,8 +656,18 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>55.135770999999998</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-1.918345</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
